--- a/data_in/dimensionless/application_disaggreagtion_keys.xlsx
+++ b/data_in/dimensionless/application_disaggreagtion_keys.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\disaggregator\data_in\dimensionless\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\Datenbankzugriff\data_in\dimensionless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8BCD05-42D8-4A96-8E22-19F43748032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44531546-BDE4-474F-A632-AF6CAE4A9F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" firstSheet="1" activeTab="2" xr2:uid="{D9854E34-249D-408C-AF18-914491AD8BC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" firstSheet="1" activeTab="4" xr2:uid="{D9854E34-249D-408C-AF18-914491AD8BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Namen WZ" sheetId="5" r:id="rId1"/>
     <sheet name="Endenergieverbrauch Strom 2015" sheetId="9" r:id="rId2"/>
     <sheet name="Endenergieverbrauch Gas 2015" sheetId="10" r:id="rId3"/>
+    <sheet name="Endenergieverbrauch Strom 2030" sheetId="11" r:id="rId4"/>
+    <sheet name="Endenergieverbrauch Strom 2011" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="123">
   <si>
     <t>Landwirtschaft, Jagd und damit verbundene Tätigkeiten</t>
   </si>
@@ -399,6 +401,12 @@
   </si>
   <si>
     <t>Warmwasser</t>
+  </si>
+  <si>
+    <t>Kühlen/Lüften/Haustechnik</t>
+  </si>
+  <si>
+    <t>Mechanische Energie</t>
   </si>
 </sst>
 </file>
@@ -406,7 +414,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -625,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -682,7 +690,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1797,7 +1811,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C12" sqref="A1:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B2D390-CB97-42D2-ABC6-7E11A7A5675F}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6284,4 +6298,5263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A1E98B-489B-4EBC-BA9F-75DC75E15547}">
+  <dimension ref="A1:I110"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection sqref="A1:H110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="92.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D3" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F3" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D4" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F4" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D5" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F5" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H25" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H27" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H30" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H31" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H32" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H34" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D38" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F38" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0</v>
+      </c>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D40" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F40" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0</v>
+      </c>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D41" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F41" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D42" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F42" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D43" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F43" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0</v>
+      </c>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D45" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F45" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H45" s="24">
+        <v>0</v>
+      </c>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D46" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F46" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D47" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F47" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D49" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E49" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F49" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>46</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D50" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E50" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F50" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D51" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F51" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0</v>
+      </c>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D53" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F53" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+      <c r="B54" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D54" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F54" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0</v>
+      </c>
+      <c r="I54" s="24"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+      <c r="B55" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D55" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F55" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0</v>
+      </c>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D56" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F56" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H56" s="24">
+        <v>0</v>
+      </c>
+      <c r="I56" s="24"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>53</v>
+      </c>
+      <c r="B57" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D57" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F57" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+      <c r="I57" s="24"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>55</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D59" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F59" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>56</v>
+      </c>
+      <c r="B60" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D60" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F60" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>58</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D62" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F62" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D63" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F63" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0</v>
+      </c>
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>60</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D64" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F64" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H64" s="24">
+        <v>0</v>
+      </c>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>61</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D65" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F65" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H65" s="24">
+        <v>0</v>
+      </c>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>62</v>
+      </c>
+      <c r="B66" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D66" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E66" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F66" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H66" s="24">
+        <v>0</v>
+      </c>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>63</v>
+      </c>
+      <c r="B67" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D67" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F67" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H67" s="24">
+        <v>0</v>
+      </c>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D69" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F69" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H69" s="24">
+        <v>0</v>
+      </c>
+      <c r="I69" s="24"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D70" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F70" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0</v>
+      </c>
+      <c r="I70" s="24"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D71" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F71" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G71" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0</v>
+      </c>
+      <c r="I71" s="24"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D73" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F73" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G73" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0</v>
+      </c>
+      <c r="I73" s="24"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>69</v>
+      </c>
+      <c r="B75" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D75" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F75" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0</v>
+      </c>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>70</v>
+      </c>
+      <c r="B76" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D76" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F76" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0</v>
+      </c>
+      <c r="I76" s="24"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>71</v>
+      </c>
+      <c r="B77" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C77" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D77" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E77" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F77" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G77" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H77" s="24">
+        <v>0</v>
+      </c>
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>72</v>
+      </c>
+      <c r="B78" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C78" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D78" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E78" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F78" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G78" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H78" s="24">
+        <v>0</v>
+      </c>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>73</v>
+      </c>
+      <c r="B79" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C79" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D79" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E79" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F79" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G79" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H79" s="24">
+        <v>0</v>
+      </c>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>74</v>
+      </c>
+      <c r="B80" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D80" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E80" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F80" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H80" s="24">
+        <v>0</v>
+      </c>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>75</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>77</v>
+      </c>
+      <c r="B83" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C83" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D83" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E83" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F83" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H83" s="24">
+        <v>0</v>
+      </c>
+      <c r="I83" s="24"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>78</v>
+      </c>
+      <c r="B84" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C84" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D84" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E84" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F84" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H84" s="24">
+        <v>0</v>
+      </c>
+      <c r="I84" s="24"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>79</v>
+      </c>
+      <c r="B85" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C85" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D85" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E85" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F85" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G85" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H85" s="24">
+        <v>0</v>
+      </c>
+      <c r="I85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>80</v>
+      </c>
+      <c r="B86" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D86" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E86" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F86" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G86" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H86" s="24">
+        <v>0</v>
+      </c>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>81</v>
+      </c>
+      <c r="B87" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C87" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D87" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E87" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F87" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G87" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H87" s="24">
+        <v>0</v>
+      </c>
+      <c r="I87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>82</v>
+      </c>
+      <c r="B88" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C88" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D88" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E88" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F88" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G88" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H88" s="24">
+        <v>0</v>
+      </c>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>84</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D90" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E90" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F90" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H90" s="24">
+        <v>0</v>
+      </c>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>85</v>
+      </c>
+      <c r="B92" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D92" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E92" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F92" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G92" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H92" s="24">
+        <v>0</v>
+      </c>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>86</v>
+      </c>
+      <c r="B94" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D94" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E94" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F94" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G94" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H94" s="24">
+        <v>0</v>
+      </c>
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>87</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D95" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E95" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F95" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H95" s="24">
+        <v>0</v>
+      </c>
+      <c r="I95" s="24"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>88</v>
+      </c>
+      <c r="B96" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C96" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D96" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E96" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F96" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G96" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H96" s="24">
+        <v>0</v>
+      </c>
+      <c r="I96" s="24"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>90</v>
+      </c>
+      <c r="B98" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C98" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D98" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E98" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F98" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G98" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H98" s="24">
+        <v>0</v>
+      </c>
+      <c r="I98" s="24"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>91</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C99" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D99" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E99" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F99" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H99" s="24">
+        <v>0</v>
+      </c>
+      <c r="I99" s="24"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>92</v>
+      </c>
+      <c r="B100" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D100" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E100" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F100" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G100" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H100" s="24">
+        <v>0</v>
+      </c>
+      <c r="I100" s="24"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>93</v>
+      </c>
+      <c r="B101" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D101" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E101" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F101" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G101" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H101" s="24">
+        <v>0</v>
+      </c>
+      <c r="I101" s="24"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>94</v>
+      </c>
+      <c r="B103" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C103" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D103" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E103" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F103" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H103" s="24">
+        <v>0</v>
+      </c>
+      <c r="I103" s="24"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>95</v>
+      </c>
+      <c r="B104" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C104" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D104" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E104" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F104" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G104" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H104" s="24">
+        <v>0</v>
+      </c>
+      <c r="I104" s="24"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>96</v>
+      </c>
+      <c r="B105" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C105" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D105" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E105" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F105" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G105" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H105" s="24">
+        <v>0</v>
+      </c>
+      <c r="I105" s="24"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>97</v>
+      </c>
+      <c r="B107" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C107" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D107" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E107" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F107" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G107" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H107" s="24">
+        <v>0</v>
+      </c>
+      <c r="I107" s="24"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>98</v>
+      </c>
+      <c r="B108" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C108" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D108" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E108" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F108" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G108" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H108" s="24">
+        <v>0</v>
+      </c>
+      <c r="I108" s="24"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>99</v>
+      </c>
+      <c r="B110" s="24">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C110" s="24">
+        <v>0.192</v>
+      </c>
+      <c r="D110" s="24">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E110" s="24">
+        <v>0.187</v>
+      </c>
+      <c r="F110" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G110" s="24">
+        <v>0.151</v>
+      </c>
+      <c r="H110" s="24">
+        <v>0</v>
+      </c>
+      <c r="I110" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B69656-09C1-48DA-82D5-239A9A2CD1F9}">
+  <dimension ref="A1:I110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:H110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="92.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D3" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H7" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H9" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H10" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H24" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H25" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H27" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H29" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H30" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G31" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H31" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H32" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H33" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H34" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H35" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.215</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D41" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D42" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D43" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D45" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>42</v>
+      </c>
+      <c r="B46" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D46" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D47" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>45</v>
+      </c>
+      <c r="B49" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D49" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E49" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F49" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>46</v>
+      </c>
+      <c r="B50" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D50" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E50" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F50" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>47</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D51" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>49</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D53" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F53" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>50</v>
+      </c>
+      <c r="B54" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D54" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>51</v>
+      </c>
+      <c r="B55" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D55" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>52</v>
+      </c>
+      <c r="B56" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D56" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>53</v>
+      </c>
+      <c r="B57" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D57" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F57" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>55</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D59" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F59" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>56</v>
+      </c>
+      <c r="B60" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D60" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F60" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>58</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D62" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D63" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>60</v>
+      </c>
+      <c r="B64" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D64" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F64" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H64" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>61</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D65" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F65" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H65" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>62</v>
+      </c>
+      <c r="B66" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D66" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E66" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F66" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H66" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>63</v>
+      </c>
+      <c r="B67" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D67" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F67" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H67" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D69" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F69" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H69" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D70" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F70" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C71" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D71" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G71" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D73" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F73" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G73" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>69</v>
+      </c>
+      <c r="B75" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D75" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F75" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>70</v>
+      </c>
+      <c r="B76" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C76" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D76" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E76" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H76" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>71</v>
+      </c>
+      <c r="B77" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C77" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D77" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E77" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F77" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G77" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H77" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>72</v>
+      </c>
+      <c r="B78" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C78" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D78" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E78" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F78" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G78" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H78" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>73</v>
+      </c>
+      <c r="B79" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C79" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D79" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E79" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F79" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G79" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H79" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>74</v>
+      </c>
+      <c r="B80" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C80" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D80" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E80" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H80" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>75</v>
+      </c>
+      <c r="B81" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C81" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D81" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E81" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F81" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G81" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H81" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>77</v>
+      </c>
+      <c r="B83" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C83" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D83" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E83" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H83" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>78</v>
+      </c>
+      <c r="B84" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C84" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D84" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E84" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F84" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H84" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>79</v>
+      </c>
+      <c r="B85" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C85" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D85" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E85" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F85" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G85" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H85" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>80</v>
+      </c>
+      <c r="B86" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D86" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E86" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F86" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G86" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H86" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>81</v>
+      </c>
+      <c r="B87" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C87" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D87" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E87" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F87" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G87" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H87" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>82</v>
+      </c>
+      <c r="B88" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C88" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D88" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E88" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F88" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G88" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H88" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>84</v>
+      </c>
+      <c r="B90" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C90" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D90" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E90" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H90" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>85</v>
+      </c>
+      <c r="B92" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C92" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D92" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E92" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F92" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G92" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H92" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>86</v>
+      </c>
+      <c r="B94" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C94" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D94" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E94" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F94" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G94" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H94" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>87</v>
+      </c>
+      <c r="B95" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C95" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D95" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E95" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F95" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H95" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>88</v>
+      </c>
+      <c r="B96" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C96" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D96" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E96" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F96" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G96" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H96" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>90</v>
+      </c>
+      <c r="B98" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C98" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D98" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E98" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F98" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G98" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H98" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>91</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C99" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D99" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E99" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F99" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H99" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>92</v>
+      </c>
+      <c r="B100" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D100" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E100" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F100" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G100" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H100" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>93</v>
+      </c>
+      <c r="B101" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D101" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E101" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F101" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G101" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H101" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>94</v>
+      </c>
+      <c r="B103" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C103" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D103" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E103" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F103" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H103" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>95</v>
+      </c>
+      <c r="B104" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C104" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D104" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E104" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F104" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G104" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H104" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>96</v>
+      </c>
+      <c r="B105" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C105" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D105" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E105" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F105" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G105" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H105" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>97</v>
+      </c>
+      <c r="B107" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C107" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D107" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E107" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F107" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G107" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H107" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>98</v>
+      </c>
+      <c r="B108" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C108" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D108" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E108" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F108" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G108" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H108" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>99</v>
+      </c>
+      <c r="B110" s="24">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C110" s="24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D110" s="24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E110" s="24">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F110" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G110" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="H110" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>